--- a/H2VGI/Data/5Days.xlsx
+++ b/H2VGI/Data/5Days.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Load" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Cost" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -349,7 +349,7 @@
   <dimension ref="A1:C61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -428,7 +428,7 @@
         <v>12147.212558978001</v>
       </c>
       <c r="C7" s="2">
-        <v>11981.0145905151</v>
+        <v>12092.3882820618</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -549,7 +549,7 @@
         <v>12223.741150240399</v>
       </c>
       <c r="C18" s="2">
-        <v>12587.6523318936</v>
+        <v>12587.640449458</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -571,7 +571,7 @@
         <v>13174.799053758001</v>
       </c>
       <c r="C20" s="2">
-        <v>13372.484130872301</v>
+        <v>13300.382049571799</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -615,7 +615,7 @@
         <v>16369.015776003</v>
       </c>
       <c r="C24" s="2">
-        <v>15383.8540443519</v>
+        <v>15375.453708282999</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -626,7 +626,7 @@
         <v>15157.1028746056</v>
       </c>
       <c r="C25" s="2">
-        <v>14830.784618436801</v>
+        <v>14880.884659319099</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -637,7 +637,7 @@
         <v>14014.354414378</v>
       </c>
       <c r="C26" s="2">
-        <v>14250.963110496999</v>
+        <v>14249.845269658001</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -659,7 +659,7 @@
         <v>12093.786438519201</v>
       </c>
       <c r="C28" s="2">
-        <v>12573.8622592513</v>
+        <v>12552.645843844501</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -670,7 +670,7 @@
         <v>11724.361780428</v>
       </c>
       <c r="C29" s="2">
-        <v>12454.4542781358</v>
+        <v>12475.670693542699</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -758,7 +758,7 @@
         <v>15290.451229548</v>
       </c>
       <c r="C37" s="2">
-        <v>15123.4909329734</v>
+        <v>15010.9864320509</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -769,7 +769,7 @@
         <v>14635.343265058</v>
       </c>
       <c r="C38" s="2">
-        <v>14924.344077158001</v>
+        <v>15375.144095457999</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -780,7 +780,7 @@
         <v>13184.730733766</v>
       </c>
       <c r="C39" s="2">
-        <v>13424.697182842299</v>
+        <v>13580.7509657754</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -813,7 +813,7 @@
         <v>12560.6287570729</v>
       </c>
       <c r="C42" s="2">
-        <v>12731.0565520767</v>
+        <v>12574.990886707999</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
@@ -824,7 +824,7 @@
         <v>12719.983562148</v>
       </c>
       <c r="C43" s="2">
-        <v>12553.649279028001</v>
+        <v>12939.7415198279</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
@@ -835,7 +835,7 @@
         <v>13773.062280508</v>
       </c>
       <c r="C44" s="2">
-        <v>13811.420775930899</v>
+        <v>13801.739094902799</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -890,7 +890,7 @@
         <v>15298.148159140201</v>
       </c>
       <c r="C49" s="2">
-        <v>14860.6559219438</v>
+        <v>15180.663577776901</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
@@ -901,7 +901,7 @@
         <v>13850.185570553</v>
       </c>
       <c r="C50" s="2">
-        <v>14965.167666032999</v>
+        <v>14325.167666032999</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
@@ -912,7 +912,7 @@
         <v>13813.9383568104</v>
       </c>
       <c r="C51" s="2">
-        <v>13567.3003335746</v>
+        <v>13681.369444179199</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
@@ -923,7 +923,7 @@
         <v>12263.487723274</v>
       </c>
       <c r="C52" s="2">
-        <v>12544.6018712031</v>
+        <v>12459.5397220254</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
@@ -945,7 +945,7 @@
         <v>12721.500517273</v>
       </c>
       <c r="C54" s="2">
-        <v>12530.579159160599</v>
+        <v>12221.9709827487</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
@@ -967,7 +967,7 @@
         <v>13731.072933418</v>
       </c>
       <c r="C56" s="2">
-        <v>13133.9924344758</v>
+        <v>13288.191686300899</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
@@ -1011,7 +1011,7 @@
         <v>14856.861032388</v>
       </c>
       <c r="C60" s="2">
-        <v>14494.945662317999</v>
+        <v>14455.885051535601</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
@@ -1022,7 +1022,7 @@
         <v>14345.026246228699</v>
       </c>
       <c r="C61" s="2">
-        <v>13941.5730366351</v>
+        <v>14108.9637732557</v>
       </c>
     </row>
   </sheetData>
@@ -1035,8 +1035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85F57EAD-8E0F-4055-91F3-F30BF110FDB4}">
   <dimension ref="A1:C61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1071,7 +1071,7 @@
         <v>223276.99969752901</v>
       </c>
       <c r="C3" s="2">
-        <v>223727.392445715</v>
+        <v>223276.99969752901</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -1101,7 +1101,7 @@
         <v>225481.89095549699</v>
       </c>
       <c r="B6" s="2">
-        <v>229297.124873074</v>
+        <v>229234.154932884</v>
       </c>
       <c r="C6" s="2">
         <v>231775.09624697501</v>
@@ -1112,10 +1112,10 @@
         <v>229625.89620218999</v>
       </c>
       <c r="B7" s="2">
-        <v>234994.70262432899</v>
+        <v>232384.651446929</v>
       </c>
       <c r="C7" s="2">
-        <v>237867.047759901</v>
+        <v>237865.94215872101</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -1123,7 +1123,7 @@
         <v>244037.20490924199</v>
       </c>
       <c r="B8" s="2">
-        <v>245850.49506356899</v>
+        <v>242654.93109956899</v>
       </c>
       <c r="C8" s="2">
         <v>245850.49506356899</v>
@@ -1137,7 +1137,7 @@
         <v>241547.47348443899</v>
       </c>
       <c r="C9" s="2">
-        <v>244881.93314742201</v>
+        <v>241547.47348443899</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -1148,7 +1148,7 @@
         <v>252029.30193857901</v>
       </c>
       <c r="C10" s="2">
-        <v>248057.070453875</v>
+        <v>248624.707356756</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -1159,7 +1159,7 @@
         <v>245223.976443422</v>
       </c>
       <c r="C11" s="2">
-        <v>245825.12784319301</v>
+        <v>247947.42018306599</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -1170,7 +1170,7 @@
         <v>242366.352836868</v>
       </c>
       <c r="C12" s="2">
-        <v>241547.47348443899</v>
+        <v>242366.352836868</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -1181,7 +1181,7 @@
         <v>241547.47348443899</v>
       </c>
       <c r="C13" s="2">
-        <v>241547.47348443899</v>
+        <v>242366.352836868</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -1214,7 +1214,7 @@
         <v>230432.63054820299</v>
       </c>
       <c r="C16" s="2">
-        <v>231763.98665380801</v>
+        <v>232501.29363645101</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -1225,7 +1225,7 @@
         <v>225807.95024702</v>
       </c>
       <c r="C17" s="2">
-        <v>226424.617992955</v>
+        <v>226875.010741142</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -1233,10 +1233,10 @@
         <v>226564.49282432999</v>
       </c>
       <c r="B18" s="2">
-        <v>234788.04771578801</v>
+        <v>234755.820676448</v>
       </c>
       <c r="C18" s="2">
-        <v>235288.118020661</v>
+        <v>235291.540460811</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -1244,10 +1244,10 @@
         <v>235281.88816381601</v>
       </c>
       <c r="B19" s="2">
-        <v>240781.87018493601</v>
+        <v>237586.30622093601</v>
       </c>
       <c r="C19" s="2">
-        <v>235261.774668386</v>
+        <v>243206.598794608</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -1258,7 +1258,7 @@
         <v>242235.899498638</v>
       </c>
       <c r="C20" s="2">
-        <v>245850.49506356899</v>
+        <v>244881.93314742201</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -1280,7 +1280,7 @@
         <v>245223.976443422</v>
       </c>
       <c r="C22" s="2">
-        <v>248295.07241344801</v>
+        <v>256450.900059101</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -1288,7 +1288,7 @@
         <v>257704.09239274199</v>
       </c>
       <c r="B23" s="2">
-        <v>261124.830142858</v>
+        <v>259608.463199858</v>
       </c>
       <c r="C23" s="2">
         <v>266729.88189762202</v>
@@ -1302,7 +1302,7 @@
         <v>242366.352836868</v>
       </c>
       <c r="C24" s="2">
-        <v>242366.352836868</v>
+        <v>242654.93109956899</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -1335,7 +1335,7 @@
         <v>235256.99658250099</v>
       </c>
       <c r="C27" s="2">
-        <v>235255.89098132099</v>
+        <v>235234.501860041</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -1346,7 +1346,7 @@
         <v>226424.617992955</v>
       </c>
       <c r="C28" s="2">
-        <v>231622.275417078</v>
+        <v>231187.10887364901</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -1365,7 +1365,7 @@
         <v>227093.989290817</v>
       </c>
       <c r="B30" s="2">
-        <v>234229.76769746401</v>
+        <v>234197.54065812399</v>
       </c>
       <c r="C30" s="2">
         <v>235291.540460811</v>
@@ -1376,10 +1376,10 @@
         <v>235281.88816381601</v>
       </c>
       <c r="B31" s="2">
-        <v>240514.83482815599</v>
+        <v>237319.27086415599</v>
       </c>
       <c r="C31" s="2">
-        <v>235068.881804665</v>
+        <v>242335.50801786501</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -1390,7 +1390,7 @@
         <v>248574.045757752</v>
       </c>
       <c r="C32" s="2">
-        <v>251432.454315051</v>
+        <v>248236.890351051</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -1401,7 +1401,7 @@
         <v>245825.12784319301</v>
       </c>
       <c r="C33" s="2">
-        <v>249403.02893783199</v>
+        <v>248236.890351051</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -1412,7 +1412,7 @@
         <v>245825.12784319301</v>
       </c>
       <c r="C34" s="2">
-        <v>253517.82152375</v>
+        <v>249732.727291413</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -1420,10 +1420,10 @@
         <v>242605.44899461401</v>
       </c>
       <c r="B35" s="2">
-        <v>251106.434053531</v>
+        <v>249590.067110531</v>
       </c>
       <c r="C35" s="2">
-        <v>255476.53722454901</v>
+        <v>252378.592306607</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -1434,7 +1434,7 @@
         <v>248285.14466545501</v>
       </c>
       <c r="C36" s="2">
-        <v>252920.95710256699</v>
+        <v>250699.35129135</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -1445,7 +1445,7 @@
         <v>242366.352836868</v>
       </c>
       <c r="C37" s="2">
-        <v>245685.63912320099</v>
+        <v>245223.976443422</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -1456,7 +1456,7 @@
         <v>240193.93283869801</v>
       </c>
       <c r="C38" s="2">
-        <v>240193.93283869801</v>
+        <v>240371.226805085</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -1467,7 +1467,7 @@
         <v>235255.89098132099</v>
       </c>
       <c r="C39" s="2">
-        <v>235255.89098132099</v>
+        <v>235234.501860041</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -1478,7 +1478,7 @@
         <v>232704.079087158</v>
       </c>
       <c r="C40" s="2">
-        <v>232704.079087158</v>
+        <v>234311.262961197</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -1489,7 +1489,7 @@
         <v>228980.62486282599</v>
       </c>
       <c r="C41" s="2">
-        <v>228139.636638542</v>
+        <v>228268.05058927799</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -1497,10 +1497,10 @@
         <v>227093.989290817</v>
       </c>
       <c r="B42" s="2">
-        <v>231612.52579848201</v>
+        <v>231580.298759142</v>
       </c>
       <c r="C42" s="2">
-        <v>235288.118020661</v>
+        <v>235255.89098132099</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
@@ -1508,10 +1508,10 @@
         <v>249226.01956833899</v>
       </c>
       <c r="B43" s="2">
-        <v>246731.46891295799</v>
+        <v>243535.90494895799</v>
       </c>
       <c r="C43" s="2">
-        <v>247896.52549853901</v>
+        <v>250405.788173537</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
@@ -1519,10 +1519,10 @@
         <v>240036.403650761</v>
       </c>
       <c r="B44" s="2">
-        <v>245688.01905662499</v>
+        <v>244955.06603851501</v>
       </c>
       <c r="C44" s="2">
-        <v>244881.93314742201</v>
+        <v>249190.54232112499</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -1530,10 +1530,10 @@
         <v>258830.04823847499</v>
       </c>
       <c r="B45" s="2">
-        <v>254602.07305345501</v>
+        <v>254537.40695390501</v>
       </c>
       <c r="C45" s="2">
-        <v>250576.144881771</v>
+        <v>258091.59625960499</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
@@ -1544,7 +1544,7 @@
         <v>250699.35129135</v>
       </c>
       <c r="C46" s="2">
-        <v>249901.64736760399</v>
+        <v>261448.57568728301</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
@@ -1555,7 +1555,7 @@
         <v>250486.86467464201</v>
       </c>
       <c r="C47" s="2">
-        <v>250384.94654394701</v>
+        <v>261448.57568728301</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
@@ -1566,7 +1566,7 @@
         <v>255645.24017150601</v>
       </c>
       <c r="C48" s="2">
-        <v>250122.06182467099</v>
+        <v>261448.57568728301</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
@@ -1577,7 +1577,7 @@
         <v>245825.12784319301</v>
       </c>
       <c r="C49" s="2">
-        <v>245223.976443422</v>
+        <v>250384.94654394701</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
@@ -1588,7 +1588,7 @@
         <v>235256.99658250099</v>
       </c>
       <c r="C50" s="2">
-        <v>239913.76459551899</v>
+        <v>235259.31342147099</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
@@ -1599,7 +1599,7 @@
         <v>229723.430928674</v>
       </c>
       <c r="C51" s="2">
-        <v>227899.809885706</v>
+        <v>231091.98075183801</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
@@ -1610,7 +1610,7 @@
         <v>226320.694067192</v>
       </c>
       <c r="C52" s="2">
-        <v>229036.02183237</v>
+        <v>231091.98075183801</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
@@ -1621,7 +1621,7 @@
         <v>226320.694067192</v>
       </c>
       <c r="C53" s="2">
-        <v>226875.010741142</v>
+        <v>227366.97795700401</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
@@ -1629,7 +1629,7 @@
         <v>226564.49282432999</v>
       </c>
       <c r="B54" s="2">
-        <v>231992.23912692899</v>
+        <v>231929.26918673899</v>
       </c>
       <c r="C54" s="2">
         <v>235288.118020661</v>
@@ -1643,7 +1643,7 @@
         <v>233046.65083879701</v>
       </c>
       <c r="C55" s="2">
-        <v>243105.69128701699</v>
+        <v>235256.99658250099</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
@@ -1651,10 +1651,10 @@
         <v>237292.77589979701</v>
       </c>
       <c r="B56" s="2">
-        <v>244010.025685053</v>
+        <v>240814.461721053</v>
       </c>
       <c r="C56" s="2">
-        <v>239913.76459551899</v>
+        <v>243109.328559519</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
@@ -1665,7 +1665,7 @@
         <v>243769.11589914499</v>
       </c>
       <c r="C57" s="2">
-        <v>239913.76459551899</v>
+        <v>241547.47348443899</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
@@ -1676,7 +1676,7 @@
         <v>245685.63912320099</v>
       </c>
       <c r="C58" s="2">
-        <v>244866.75977077201</v>
+        <v>248057.070453875</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
@@ -1687,7 +1687,7 @@
         <v>260671.06821970499</v>
       </c>
       <c r="C59" s="2">
-        <v>261448.57568728301</v>
+        <v>245934.778114001</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
@@ -1698,7 +1698,7 @@
         <v>241547.47348443899</v>
       </c>
       <c r="C60" s="2">
-        <v>239912.51458732999</v>
+        <v>240950.802679043</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
